--- a/tests/performance_data.xlsx
+++ b/tests/performance_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Test Size</t>
+          <t>Test Name</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -446,213 +446,293 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>100001</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>200001</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>300001</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>4000</t>
+          <t>400001</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>500001</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>600001</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>700001</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>800001</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>900001</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>5000</t>
+          <t>1000001</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>BubbleSort (Random)</t>
+          <t>MergeSort (AntiSorted) for ArrSeq</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3e-07</v>
+        <v>1e-07</v>
       </c>
       <c r="C2" t="n">
-        <v>1.1e-06</v>
+        <v>0.117878</v>
       </c>
       <c r="D2" t="n">
-        <v>9.74e-05</v>
+        <v>0.240159</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0102375</v>
+        <v>0.372943</v>
       </c>
       <c r="F2" t="n">
-        <v>0.165003</v>
+        <v>0.49382</v>
       </c>
       <c r="G2" t="n">
-        <v>2e-07</v>
+        <v>0.601148</v>
       </c>
       <c r="H2" t="n">
-        <v>2e-07</v>
+        <v>0.774666</v>
       </c>
       <c r="I2" t="n">
-        <v>2e-07</v>
+        <v>0.895214</v>
       </c>
       <c r="J2" t="n">
-        <v>3e-07</v>
+        <v>1.08162</v>
       </c>
       <c r="K2" t="n">
-        <v>5e-07</v>
+        <v>1.20087</v>
       </c>
       <c r="L2" t="n">
-        <v>0.255463</v>
+        <v>1.69765</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MergeSort (Random)</t>
+          <t>MergeSort (Random) for ArrSeq</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>2e-07</v>
       </c>
       <c r="C3" t="n">
-        <v>1.01e-05</v>
+        <v>0.136186</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0001006</v>
+        <v>0.266848</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0009804</v>
+        <v>0.417959</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0042571</v>
+        <v>0.554634</v>
       </c>
       <c r="G3" t="n">
-        <v>9e-07</v>
+        <v>0.674731</v>
       </c>
       <c r="H3" t="n">
-        <v>1.5e-06</v>
+        <v>0.856405</v>
       </c>
       <c r="I3" t="n">
-        <v>2e-06</v>
+        <v>1.00606</v>
       </c>
       <c r="J3" t="n">
-        <v>3e-06</v>
+        <v>1.1304</v>
       </c>
       <c r="K3" t="n">
-        <v>3.7e-06</v>
+        <v>1.28711</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0053538</v>
+        <v>1.51665</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>QuickSort (Random)</t>
+          <t>MergeSort (Sorted) for ArrSeq</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.6e-06</v>
+        <v>1e-07</v>
       </c>
       <c r="C4" t="n">
-        <v>8.8e-06</v>
+        <v>0.118356</v>
       </c>
       <c r="D4" t="n">
-        <v>8.75e-05</v>
+        <v>0.237652</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0008937</v>
+        <v>0.38068</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0038892</v>
+        <v>0.491419</v>
       </c>
       <c r="G4" t="n">
-        <v>7e-07</v>
+        <v>0.605665</v>
       </c>
       <c r="H4" t="n">
-        <v>7e-07</v>
+        <v>0.771969</v>
       </c>
       <c r="I4" t="n">
-        <v>1.2e-06</v>
+        <v>0.899319</v>
       </c>
       <c r="J4" t="n">
-        <v>2.5e-06</v>
+        <v>1.01573</v>
       </c>
       <c r="K4" t="n">
-        <v>2.1e-06</v>
+        <v>1.41584</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0047888</v>
+        <v>1.31067</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ShakerSort (Random)</t>
+          <t>QuickSort (AntiSorted) for ArrSeq</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3e-07</v>
+        <v>6e-07</v>
       </c>
       <c r="C5" t="n">
-        <v>2e-07</v>
+        <v>0.123083</v>
       </c>
       <c r="D5" t="n">
-        <v>9e-07</v>
+        <v>0.249678</v>
       </c>
       <c r="E5" t="n">
-        <v>9.099999999999999e-06</v>
+        <v>0.381759</v>
       </c>
       <c r="F5" t="n">
-        <v>3.31e-05</v>
+        <v>0.52223</v>
       </c>
       <c r="G5" t="n">
-        <v>1e-07</v>
+        <v>0.618437</v>
       </c>
       <c r="H5" t="n">
-        <v>1e-07</v>
+        <v>0.835074</v>
       </c>
       <c r="I5" t="n">
-        <v>1e-07</v>
+        <v>0.965652</v>
       </c>
       <c r="J5" t="n">
-        <v>1e-07</v>
+        <v>1.10905</v>
       </c>
       <c r="K5" t="n">
-        <v>1e-07</v>
+        <v>1.25768</v>
       </c>
       <c r="L5" t="n">
-        <v>3.73e-05</v>
+        <v>1.46317</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>QuickSort (Random) for ArrSeq</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1.7e-06</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.157254</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.38803</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.66493</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.996336</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1.38143</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1.81146</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2.3157</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2.89845</v>
+      </c>
+      <c r="K6" t="n">
+        <v>4.20562</v>
+      </c>
+      <c r="L6" t="n">
+        <v>4.77623</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>QuickSort (Sorted) for ArrSeq</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>6.6e-06</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.118811</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.249966</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.378067</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.521817</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.615968</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.789621</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.953257</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1.22072</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1.28776</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.36637</v>
       </c>
     </row>
   </sheetData>
